--- a/pi/export/data.xlsx
+++ b/pi/export/data.xlsx
@@ -337,7 +337,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D2" t="n">
         <v>3.6</v>
@@ -371,7 +371,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
         <v>3.6</v>
@@ -507,13 +507,13 @@
         <v>500.0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.16</v>
+        <v>3.152</v>
       </c>
       <c r="D12" t="n">
-        <v>3.196</v>
+        <v>3.1064000000000003</v>
       </c>
       <c r="E12" t="n">
-        <v>0.054407349999999965</v>
+        <v>0.035192649999999936</v>
       </c>
     </row>
     <row r="13">
@@ -524,13 +524,13 @@
         <v>500.0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.208</v>
+        <v>3.176</v>
       </c>
       <c r="D13" t="n">
-        <v>3.196</v>
+        <v>3.1064000000000003</v>
       </c>
       <c r="E13" t="n">
-        <v>0.054407349999999965</v>
+        <v>0.035192649999999936</v>
       </c>
     </row>
     <row r="14">
@@ -541,13 +541,13 @@
         <v>500.0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.112</v>
+        <v>3.008</v>
       </c>
       <c r="D14" t="n">
-        <v>3.196</v>
+        <v>3.1064000000000003</v>
       </c>
       <c r="E14" t="n">
-        <v>0.054407349999999965</v>
+        <v>0.035192649999999936</v>
       </c>
     </row>
     <row r="15">
@@ -558,13 +558,13 @@
         <v>500.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.232</v>
+        <v>3.128</v>
       </c>
       <c r="D15" t="n">
-        <v>3.196</v>
+        <v>3.1064000000000003</v>
       </c>
       <c r="E15" t="n">
-        <v>0.054407349999999965</v>
+        <v>0.035192649999999936</v>
       </c>
     </row>
     <row r="16">
@@ -575,13 +575,13 @@
         <v>500.0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.288</v>
+        <v>3.048</v>
       </c>
       <c r="D16" t="n">
-        <v>3.196</v>
+        <v>3.1064000000000003</v>
       </c>
       <c r="E16" t="n">
-        <v>0.054407349999999965</v>
+        <v>0.035192649999999936</v>
       </c>
     </row>
     <row r="17">
@@ -592,13 +592,13 @@
         <v>500.0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.216</v>
+        <v>3.104</v>
       </c>
       <c r="D17" t="n">
-        <v>3.196</v>
+        <v>3.1064000000000003</v>
       </c>
       <c r="E17" t="n">
-        <v>0.054407349999999965</v>
+        <v>0.035192649999999936</v>
       </c>
     </row>
     <row r="18">
@@ -609,13 +609,13 @@
         <v>500.0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.184</v>
+        <v>3.128</v>
       </c>
       <c r="D18" t="n">
-        <v>3.196</v>
+        <v>3.1064000000000003</v>
       </c>
       <c r="E18" t="n">
-        <v>0.054407349999999965</v>
+        <v>0.035192649999999936</v>
       </c>
     </row>
     <row r="19">
@@ -626,13 +626,13 @@
         <v>500.0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.232</v>
+        <v>3.104</v>
       </c>
       <c r="D19" t="n">
-        <v>3.196</v>
+        <v>3.1064000000000003</v>
       </c>
       <c r="E19" t="n">
-        <v>0.054407349999999965</v>
+        <v>0.035192649999999936</v>
       </c>
     </row>
     <row r="20">
@@ -643,13 +643,13 @@
         <v>500.0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.176</v>
+        <v>3.128</v>
       </c>
       <c r="D20" t="n">
-        <v>3.196</v>
+        <v>3.1064000000000003</v>
       </c>
       <c r="E20" t="n">
-        <v>0.054407349999999965</v>
+        <v>0.035192649999999936</v>
       </c>
     </row>
     <row r="21">
@@ -660,13 +660,13 @@
         <v>500.0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.152</v>
+        <v>3.088</v>
       </c>
       <c r="D21" t="n">
-        <v>3.196</v>
+        <v>3.1064000000000003</v>
       </c>
       <c r="E21" t="n">
-        <v>0.054407349999999965</v>
+        <v>0.035192649999999936</v>
       </c>
     </row>
     <row r="22">
@@ -677,13 +677,13 @@
         <v>1000.0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.18</v>
+        <v>3.16</v>
       </c>
       <c r="D22" t="n">
-        <v>3.1624</v>
+        <v>3.1472</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02080734999999967</v>
+        <v>0.005607350000000011</v>
       </c>
     </row>
     <row r="23">
@@ -694,13 +694,13 @@
         <v>1000.0</v>
       </c>
       <c r="C23" t="n">
-        <v>3.196</v>
+        <v>3.272</v>
       </c>
       <c r="D23" t="n">
-        <v>3.1624</v>
+        <v>3.1472</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02080734999999967</v>
+        <v>0.005607350000000011</v>
       </c>
     </row>
     <row r="24">
@@ -711,13 +711,13 @@
         <v>1000.0</v>
       </c>
       <c r="C24" t="n">
-        <v>3.088</v>
+        <v>3.02</v>
       </c>
       <c r="D24" t="n">
-        <v>3.1624</v>
+        <v>3.1472</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02080734999999967</v>
+        <v>0.005607350000000011</v>
       </c>
     </row>
     <row r="25">
@@ -728,13 +728,13 @@
         <v>1000.0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.204</v>
+        <v>3.148</v>
       </c>
       <c r="D25" t="n">
-        <v>3.1624</v>
+        <v>3.1472</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02080734999999967</v>
+        <v>0.005607350000000011</v>
       </c>
     </row>
     <row r="26">
@@ -745,13 +745,13 @@
         <v>1000.0</v>
       </c>
       <c r="C26" t="n">
-        <v>3.096</v>
+        <v>3.164</v>
       </c>
       <c r="D26" t="n">
-        <v>3.1624</v>
+        <v>3.1472</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02080734999999967</v>
+        <v>0.005607350000000011</v>
       </c>
     </row>
     <row r="27">
@@ -762,13 +762,13 @@
         <v>1000.0</v>
       </c>
       <c r="C27" t="n">
-        <v>3.148</v>
+        <v>3.176</v>
       </c>
       <c r="D27" t="n">
-        <v>3.1624</v>
+        <v>3.1472</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02080734999999967</v>
+        <v>0.005607350000000011</v>
       </c>
     </row>
     <row r="28">
@@ -779,13 +779,13 @@
         <v>1000.0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.132</v>
+        <v>3.124</v>
       </c>
       <c r="D28" t="n">
-        <v>3.1624</v>
+        <v>3.1472</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02080734999999967</v>
+        <v>0.005607350000000011</v>
       </c>
     </row>
     <row r="29">
@@ -796,13 +796,13 @@
         <v>1000.0</v>
       </c>
       <c r="C29" t="n">
-        <v>3.116</v>
+        <v>3.164</v>
       </c>
       <c r="D29" t="n">
-        <v>3.1624</v>
+        <v>3.1472</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02080734999999967</v>
+        <v>0.005607350000000011</v>
       </c>
     </row>
     <row r="30">
@@ -813,13 +813,13 @@
         <v>1000.0</v>
       </c>
       <c r="C30" t="n">
-        <v>3.196</v>
+        <v>3.136</v>
       </c>
       <c r="D30" t="n">
-        <v>3.1624</v>
+        <v>3.1472</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02080734999999967</v>
+        <v>0.005607350000000011</v>
       </c>
     </row>
     <row r="31">
@@ -830,13 +830,13 @@
         <v>1000.0</v>
       </c>
       <c r="C31" t="n">
-        <v>3.268</v>
+        <v>3.108</v>
       </c>
       <c r="D31" t="n">
-        <v>3.1624</v>
+        <v>3.1472</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02080734999999967</v>
+        <v>0.005607350000000011</v>
       </c>
     </row>
     <row r="32">
@@ -847,13 +847,13 @@
         <v>10000.0</v>
       </c>
       <c r="C32" t="n">
-        <v>3.1316</v>
+        <v>3.126</v>
       </c>
       <c r="D32" t="n">
-        <v>3.13596</v>
+        <v>3.14076</v>
       </c>
       <c r="E32" t="n">
-        <v>0.00563265000000035</v>
+        <v>8.326499999999903E-4</v>
       </c>
     </row>
     <row r="33">
@@ -864,13 +864,13 @@
         <v>10000.0</v>
       </c>
       <c r="C33" t="n">
-        <v>3.122</v>
+        <v>3.1252</v>
       </c>
       <c r="D33" t="n">
-        <v>3.13596</v>
+        <v>3.14076</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00563265000000035</v>
+        <v>8.326499999999903E-4</v>
       </c>
     </row>
     <row r="34">
@@ -881,13 +881,13 @@
         <v>10000.0</v>
       </c>
       <c r="C34" t="n">
-        <v>3.128</v>
+        <v>3.1456</v>
       </c>
       <c r="D34" t="n">
-        <v>3.13596</v>
+        <v>3.14076</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00563265000000035</v>
+        <v>8.326499999999903E-4</v>
       </c>
     </row>
     <row r="35">
@@ -898,13 +898,13 @@
         <v>10000.0</v>
       </c>
       <c r="C35" t="n">
-        <v>3.158</v>
+        <v>3.1616</v>
       </c>
       <c r="D35" t="n">
-        <v>3.13596</v>
+        <v>3.14076</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00563265000000035</v>
+        <v>8.326499999999903E-4</v>
       </c>
     </row>
     <row r="36">
@@ -915,13 +915,13 @@
         <v>10000.0</v>
       </c>
       <c r="C36" t="n">
-        <v>3.1628</v>
+        <v>3.1684</v>
       </c>
       <c r="D36" t="n">
-        <v>3.13596</v>
+        <v>3.14076</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00563265000000035</v>
+        <v>8.326499999999903E-4</v>
       </c>
     </row>
     <row r="37">
@@ -932,13 +932,13 @@
         <v>10000.0</v>
       </c>
       <c r="C37" t="n">
-        <v>3.1264</v>
+        <v>3.1292</v>
       </c>
       <c r="D37" t="n">
-        <v>3.13596</v>
+        <v>3.14076</v>
       </c>
       <c r="E37" t="n">
-        <v>0.00563265000000035</v>
+        <v>8.326499999999903E-4</v>
       </c>
     </row>
     <row r="38">
@@ -949,13 +949,13 @@
         <v>10000.0</v>
       </c>
       <c r="C38" t="n">
-        <v>3.1116</v>
+        <v>3.1448</v>
       </c>
       <c r="D38" t="n">
-        <v>3.13596</v>
+        <v>3.14076</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00563265000000035</v>
+        <v>8.326499999999903E-4</v>
       </c>
     </row>
     <row r="39">
@@ -966,13 +966,13 @@
         <v>10000.0</v>
       </c>
       <c r="C39" t="n">
-        <v>3.144</v>
+        <v>3.1188</v>
       </c>
       <c r="D39" t="n">
-        <v>3.13596</v>
+        <v>3.14076</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00563265000000035</v>
+        <v>8.326499999999903E-4</v>
       </c>
     </row>
     <row r="40">
@@ -983,13 +983,13 @@
         <v>10000.0</v>
       </c>
       <c r="C40" t="n">
-        <v>3.1504</v>
+        <v>3.1244</v>
       </c>
       <c r="D40" t="n">
-        <v>3.13596</v>
+        <v>3.14076</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00563265000000035</v>
+        <v>8.326499999999903E-4</v>
       </c>
     </row>
     <row r="41">
@@ -1000,13 +1000,13 @@
         <v>10000.0</v>
       </c>
       <c r="C41" t="n">
-        <v>3.1248</v>
+        <v>3.1636</v>
       </c>
       <c r="D41" t="n">
-        <v>3.13596</v>
+        <v>3.14076</v>
       </c>
       <c r="E41" t="n">
-        <v>0.00563265000000035</v>
+        <v>8.326499999999903E-4</v>
       </c>
     </row>
     <row r="42">
@@ -1017,13 +1017,13 @@
         <v>50000.0</v>
       </c>
       <c r="C42" t="n">
-        <v>3.13864</v>
+        <v>3.1376</v>
       </c>
       <c r="D42" t="n">
-        <v>3.142552</v>
+        <v>3.140752</v>
       </c>
       <c r="E42" t="n">
-        <v>9.593499999995814E-4</v>
+        <v>8.406500000002204E-4</v>
       </c>
     </row>
     <row r="43">
@@ -1034,13 +1034,13 @@
         <v>50000.0</v>
       </c>
       <c r="C43" t="n">
-        <v>3.14288</v>
+        <v>3.1456</v>
       </c>
       <c r="D43" t="n">
-        <v>3.142552</v>
+        <v>3.140752</v>
       </c>
       <c r="E43" t="n">
-        <v>9.593499999995814E-4</v>
+        <v>8.406500000002204E-4</v>
       </c>
     </row>
     <row r="44">
@@ -1051,13 +1051,13 @@
         <v>50000.0</v>
       </c>
       <c r="C44" t="n">
-        <v>3.13344</v>
+        <v>3.14728</v>
       </c>
       <c r="D44" t="n">
-        <v>3.142552</v>
+        <v>3.140752</v>
       </c>
       <c r="E44" t="n">
-        <v>9.593499999995814E-4</v>
+        <v>8.406500000002204E-4</v>
       </c>
     </row>
     <row r="45">
@@ -1068,13 +1068,13 @@
         <v>50000.0</v>
       </c>
       <c r="C45" t="n">
-        <v>3.14744</v>
+        <v>3.15184</v>
       </c>
       <c r="D45" t="n">
-        <v>3.142552</v>
+        <v>3.140752</v>
       </c>
       <c r="E45" t="n">
-        <v>9.593499999995814E-4</v>
+        <v>8.406500000002204E-4</v>
       </c>
     </row>
     <row r="46">
@@ -1085,13 +1085,13 @@
         <v>50000.0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.154</v>
+        <v>3.13416</v>
       </c>
       <c r="D46" t="n">
-        <v>3.142552</v>
+        <v>3.140752</v>
       </c>
       <c r="E46" t="n">
-        <v>9.593499999995814E-4</v>
+        <v>8.406500000002204E-4</v>
       </c>
     </row>
     <row r="47">
@@ -1102,13 +1102,13 @@
         <v>50000.0</v>
       </c>
       <c r="C47" t="n">
-        <v>3.14312</v>
+        <v>3.1336</v>
       </c>
       <c r="D47" t="n">
-        <v>3.142552</v>
+        <v>3.140752</v>
       </c>
       <c r="E47" t="n">
-        <v>9.593499999995814E-4</v>
+        <v>8.406500000002204E-4</v>
       </c>
     </row>
     <row r="48">
@@ -1119,13 +1119,13 @@
         <v>50000.0</v>
       </c>
       <c r="C48" t="n">
-        <v>3.14352</v>
+        <v>3.13856</v>
       </c>
       <c r="D48" t="n">
-        <v>3.142552</v>
+        <v>3.140752</v>
       </c>
       <c r="E48" t="n">
-        <v>9.593499999995814E-4</v>
+        <v>8.406500000002204E-4</v>
       </c>
     </row>
     <row r="49">
@@ -1136,13 +1136,13 @@
         <v>50000.0</v>
       </c>
       <c r="C49" t="n">
-        <v>3.13968</v>
+        <v>3.13792</v>
       </c>
       <c r="D49" t="n">
-        <v>3.142552</v>
+        <v>3.140752</v>
       </c>
       <c r="E49" t="n">
-        <v>9.593499999995814E-4</v>
+        <v>8.406500000002204E-4</v>
       </c>
     </row>
     <row r="50">
@@ -1153,13 +1153,13 @@
         <v>50000.0</v>
       </c>
       <c r="C50" t="n">
-        <v>3.14688</v>
+        <v>3.14768</v>
       </c>
       <c r="D50" t="n">
-        <v>3.142552</v>
+        <v>3.140752</v>
       </c>
       <c r="E50" t="n">
-        <v>9.593499999995814E-4</v>
+        <v>8.406500000002204E-4</v>
       </c>
     </row>
     <row r="51">
@@ -1170,13 +1170,13 @@
         <v>50000.0</v>
       </c>
       <c r="C51" t="n">
-        <v>3.13592</v>
+        <v>3.13328</v>
       </c>
       <c r="D51" t="n">
-        <v>3.142552</v>
+        <v>3.140752</v>
       </c>
       <c r="E51" t="n">
-        <v>9.593499999995814E-4</v>
+        <v>8.406500000002204E-4</v>
       </c>
     </row>
     <row r="52">
@@ -1187,13 +1187,13 @@
         <v>100000.0</v>
       </c>
       <c r="C52" t="n">
-        <v>3.14412</v>
+        <v>3.15124</v>
       </c>
       <c r="D52" t="n">
-        <v>3.140376</v>
+        <v>3.143188</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0012166500000003744</v>
+        <v>0.0015953499999996623</v>
       </c>
     </row>
     <row r="53">
@@ -1204,13 +1204,13 @@
         <v>100000.0</v>
       </c>
       <c r="C53" t="n">
-        <v>3.14656</v>
+        <v>3.14072</v>
       </c>
       <c r="D53" t="n">
-        <v>3.140376</v>
+        <v>3.143188</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0012166500000003744</v>
+        <v>0.0015953499999996623</v>
       </c>
     </row>
     <row r="54">
@@ -1221,13 +1221,13 @@
         <v>100000.0</v>
       </c>
       <c r="C54" t="n">
-        <v>3.13768</v>
+        <v>3.15132</v>
       </c>
       <c r="D54" t="n">
-        <v>3.140376</v>
+        <v>3.143188</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0012166500000003744</v>
+        <v>0.0015953499999996623</v>
       </c>
     </row>
     <row r="55">
@@ -1238,13 +1238,13 @@
         <v>100000.0</v>
       </c>
       <c r="C55" t="n">
-        <v>3.13816</v>
+        <v>3.15076</v>
       </c>
       <c r="D55" t="n">
-        <v>3.140376</v>
+        <v>3.143188</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0012166500000003744</v>
+        <v>0.0015953499999996623</v>
       </c>
     </row>
     <row r="56">
@@ -1255,13 +1255,13 @@
         <v>100000.0</v>
       </c>
       <c r="C56" t="n">
-        <v>3.14404</v>
+        <v>3.1406</v>
       </c>
       <c r="D56" t="n">
-        <v>3.140376</v>
+        <v>3.143188</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0012166500000003744</v>
+        <v>0.0015953499999996623</v>
       </c>
     </row>
     <row r="57">
@@ -1272,13 +1272,13 @@
         <v>100000.0</v>
       </c>
       <c r="C57" t="n">
-        <v>3.13672</v>
+        <v>3.13796</v>
       </c>
       <c r="D57" t="n">
-        <v>3.140376</v>
+        <v>3.143188</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0012166500000003744</v>
+        <v>0.0015953499999996623</v>
       </c>
     </row>
     <row r="58">
@@ -1289,13 +1289,13 @@
         <v>100000.0</v>
       </c>
       <c r="C58" t="n">
-        <v>3.14476</v>
+        <v>3.13288</v>
       </c>
       <c r="D58" t="n">
-        <v>3.140376</v>
+        <v>3.143188</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0012166500000003744</v>
+        <v>0.0015953499999996623</v>
       </c>
     </row>
     <row r="59">
@@ -1306,13 +1306,13 @@
         <v>100000.0</v>
       </c>
       <c r="C59" t="n">
-        <v>3.13196</v>
+        <v>3.13912</v>
       </c>
       <c r="D59" t="n">
-        <v>3.140376</v>
+        <v>3.143188</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0012166500000003744</v>
+        <v>0.0015953499999996623</v>
       </c>
     </row>
     <row r="60">
@@ -1323,13 +1323,13 @@
         <v>100000.0</v>
       </c>
       <c r="C60" t="n">
-        <v>3.13416</v>
+        <v>3.13788</v>
       </c>
       <c r="D60" t="n">
-        <v>3.140376</v>
+        <v>3.143188</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0012166500000003744</v>
+        <v>0.0015953499999996623</v>
       </c>
     </row>
     <row r="61">
@@ -1340,13 +1340,13 @@
         <v>100000.0</v>
       </c>
       <c r="C61" t="n">
-        <v>3.1456</v>
+        <v>3.1494</v>
       </c>
       <c r="D61" t="n">
-        <v>3.140376</v>
+        <v>3.143188</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0012166500000003744</v>
+        <v>0.0015953499999996623</v>
       </c>
     </row>
     <row r="62">
@@ -1357,13 +1357,13 @@
         <v>500000.0</v>
       </c>
       <c r="C62" t="n">
-        <v>3.140048</v>
+        <v>3.138848</v>
       </c>
       <c r="D62" t="n">
-        <v>3.141432</v>
+        <v>3.1402744</v>
       </c>
       <c r="E62" t="n">
-        <v>1.6065000000020646E-4</v>
+        <v>0.0013182500000001873</v>
       </c>
     </row>
     <row r="63">
@@ -1374,13 +1374,13 @@
         <v>500000.0</v>
       </c>
       <c r="C63" t="n">
-        <v>3.14156</v>
+        <v>3.139824</v>
       </c>
       <c r="D63" t="n">
-        <v>3.141432</v>
+        <v>3.1402744</v>
       </c>
       <c r="E63" t="n">
-        <v>1.6065000000020646E-4</v>
+        <v>0.0013182500000001873</v>
       </c>
     </row>
     <row r="64">
@@ -1391,13 +1391,13 @@
         <v>500000.0</v>
       </c>
       <c r="C64" t="n">
-        <v>3.145408</v>
+        <v>3.1382</v>
       </c>
       <c r="D64" t="n">
-        <v>3.141432</v>
+        <v>3.1402744</v>
       </c>
       <c r="E64" t="n">
-        <v>1.6065000000020646E-4</v>
+        <v>0.0013182500000001873</v>
       </c>
     </row>
     <row r="65">
@@ -1408,13 +1408,13 @@
         <v>500000.0</v>
       </c>
       <c r="C65" t="n">
-        <v>3.136648</v>
+        <v>3.142832</v>
       </c>
       <c r="D65" t="n">
-        <v>3.141432</v>
+        <v>3.1402744</v>
       </c>
       <c r="E65" t="n">
-        <v>1.6065000000020646E-4</v>
+        <v>0.0013182500000001873</v>
       </c>
     </row>
     <row r="66">
@@ -1425,13 +1425,13 @@
         <v>500000.0</v>
       </c>
       <c r="C66" t="n">
-        <v>3.139424</v>
+        <v>3.1382</v>
       </c>
       <c r="D66" t="n">
-        <v>3.141432</v>
+        <v>3.1402744</v>
       </c>
       <c r="E66" t="n">
-        <v>1.6065000000020646E-4</v>
+        <v>0.0013182500000001873</v>
       </c>
     </row>
     <row r="67">
@@ -1442,13 +1442,13 @@
         <v>500000.0</v>
       </c>
       <c r="C67" t="n">
-        <v>3.142896</v>
+        <v>3.139048</v>
       </c>
       <c r="D67" t="n">
-        <v>3.141432</v>
+        <v>3.1402744</v>
       </c>
       <c r="E67" t="n">
-        <v>1.6065000000020646E-4</v>
+        <v>0.0013182500000001873</v>
       </c>
     </row>
     <row r="68">
@@ -1459,13 +1459,13 @@
         <v>500000.0</v>
       </c>
       <c r="C68" t="n">
-        <v>3.142136</v>
+        <v>3.141136</v>
       </c>
       <c r="D68" t="n">
-        <v>3.141432</v>
+        <v>3.1402744</v>
       </c>
       <c r="E68" t="n">
-        <v>1.6065000000020646E-4</v>
+        <v>0.0013182500000001873</v>
       </c>
     </row>
     <row r="69">
@@ -1476,13 +1476,13 @@
         <v>500000.0</v>
       </c>
       <c r="C69" t="n">
-        <v>3.14256</v>
+        <v>3.14212</v>
       </c>
       <c r="D69" t="n">
-        <v>3.141432</v>
+        <v>3.1402744</v>
       </c>
       <c r="E69" t="n">
-        <v>1.6065000000020646E-4</v>
+        <v>0.0013182500000001873</v>
       </c>
     </row>
     <row r="70">
@@ -1493,13 +1493,13 @@
         <v>500000.0</v>
       </c>
       <c r="C70" t="n">
-        <v>3.14376</v>
+        <v>3.14164</v>
       </c>
       <c r="D70" t="n">
-        <v>3.141432</v>
+        <v>3.1402744</v>
       </c>
       <c r="E70" t="n">
-        <v>1.6065000000020646E-4</v>
+        <v>0.0013182500000001873</v>
       </c>
     </row>
     <row r="71">
@@ -1510,13 +1510,13 @@
         <v>500000.0</v>
       </c>
       <c r="C71" t="n">
-        <v>3.13988</v>
+        <v>3.140896</v>
       </c>
       <c r="D71" t="n">
-        <v>3.141432</v>
+        <v>3.1402744</v>
       </c>
       <c r="E71" t="n">
-        <v>1.6065000000020646E-4</v>
+        <v>0.0013182500000001873</v>
       </c>
     </row>
     <row r="72">
@@ -1527,13 +1527,13 @@
         <v>1000000.0</v>
       </c>
       <c r="C72" t="n">
-        <v>3.138012</v>
+        <v>3.14098</v>
       </c>
       <c r="D72" t="n">
-        <v>3.1412168</v>
+        <v>3.141196</v>
       </c>
       <c r="E72" t="n">
-        <v>3.7585000000017743E-4</v>
+        <v>3.9665000000033146E-4</v>
       </c>
     </row>
     <row r="73">
@@ -1544,13 +1544,13 @@
         <v>1000000.0</v>
       </c>
       <c r="C73" t="n">
-        <v>3.140468</v>
+        <v>3.143788</v>
       </c>
       <c r="D73" t="n">
-        <v>3.1412168</v>
+        <v>3.141196</v>
       </c>
       <c r="E73" t="n">
-        <v>3.7585000000017743E-4</v>
+        <v>3.9665000000033146E-4</v>
       </c>
     </row>
     <row r="74">
@@ -1561,13 +1561,13 @@
         <v>1000000.0</v>
       </c>
       <c r="C74" t="n">
-        <v>3.145972</v>
+        <v>3.139892</v>
       </c>
       <c r="D74" t="n">
-        <v>3.1412168</v>
+        <v>3.141196</v>
       </c>
       <c r="E74" t="n">
-        <v>3.7585000000017743E-4</v>
+        <v>3.9665000000033146E-4</v>
       </c>
     </row>
     <row r="75">
@@ -1578,13 +1578,13 @@
         <v>1000000.0</v>
       </c>
       <c r="C75" t="n">
-        <v>3.142316</v>
+        <v>3.143944</v>
       </c>
       <c r="D75" t="n">
-        <v>3.1412168</v>
+        <v>3.141196</v>
       </c>
       <c r="E75" t="n">
-        <v>3.7585000000017743E-4</v>
+        <v>3.9665000000033146E-4</v>
       </c>
     </row>
     <row r="76">
@@ -1595,13 +1595,13 @@
         <v>1000000.0</v>
       </c>
       <c r="C76" t="n">
-        <v>3.14118</v>
+        <v>3.140544</v>
       </c>
       <c r="D76" t="n">
-        <v>3.1412168</v>
+        <v>3.141196</v>
       </c>
       <c r="E76" t="n">
-        <v>3.7585000000017743E-4</v>
+        <v>3.9665000000033146E-4</v>
       </c>
     </row>
     <row r="77">
@@ -1612,13 +1612,13 @@
         <v>1000000.0</v>
       </c>
       <c r="C77" t="n">
-        <v>3.138856</v>
+        <v>3.143224</v>
       </c>
       <c r="D77" t="n">
-        <v>3.1412168</v>
+        <v>3.141196</v>
       </c>
       <c r="E77" t="n">
-        <v>3.7585000000017743E-4</v>
+        <v>3.9665000000033146E-4</v>
       </c>
     </row>
     <row r="78">
@@ -1629,13 +1629,13 @@
         <v>1000000.0</v>
       </c>
       <c r="C78" t="n">
-        <v>3.14046</v>
+        <v>3.14072</v>
       </c>
       <c r="D78" t="n">
-        <v>3.1412168</v>
+        <v>3.141196</v>
       </c>
       <c r="E78" t="n">
-        <v>3.7585000000017743E-4</v>
+        <v>3.9665000000033146E-4</v>
       </c>
     </row>
     <row r="79">
@@ -1646,13 +1646,13 @@
         <v>1000000.0</v>
       </c>
       <c r="C79" t="n">
-        <v>3.142484</v>
+        <v>3.14038</v>
       </c>
       <c r="D79" t="n">
-        <v>3.1412168</v>
+        <v>3.141196</v>
       </c>
       <c r="E79" t="n">
-        <v>3.7585000000017743E-4</v>
+        <v>3.9665000000033146E-4</v>
       </c>
     </row>
     <row r="80">
@@ -1663,13 +1663,13 @@
         <v>1000000.0</v>
       </c>
       <c r="C80" t="n">
-        <v>3.14058</v>
+        <v>3.139312</v>
       </c>
       <c r="D80" t="n">
-        <v>3.1412168</v>
+        <v>3.141196</v>
       </c>
       <c r="E80" t="n">
-        <v>3.7585000000017743E-4</v>
+        <v>3.9665000000033146E-4</v>
       </c>
     </row>
     <row r="81">
@@ -1680,13 +1680,13 @@
         <v>1000000.0</v>
       </c>
       <c r="C81" t="n">
-        <v>3.14184</v>
+        <v>3.139176</v>
       </c>
       <c r="D81" t="n">
-        <v>3.1412168</v>
+        <v>3.141196</v>
       </c>
       <c r="E81" t="n">
-        <v>3.7585000000017743E-4</v>
+        <v>3.9665000000033146E-4</v>
       </c>
     </row>
   </sheetData>

--- a/pi/export/data.xlsx
+++ b/pi/export/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>step</t>
   </si>
@@ -23,7 +23,7 @@
     <t>avg_pi</t>
   </si>
   <si>
-    <t>avg_diff</t>
+    <t>diff</t>
   </si>
   <si>
     <t>1</t>
@@ -234,36 +234,6 @@
   </si>
   <si>
     <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
   </si>
 </sst>
 </file>
@@ -371,7 +341,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="n">
         <v>3.6</v>
@@ -490,7 +460,7 @@
         <v>1.0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D11" t="n">
         <v>3.6</v>
@@ -504,16 +474,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>500.0</v>
+        <v>10.0</v>
       </c>
       <c r="C12" t="n">
-        <v>3.152</v>
+        <v>3.2</v>
       </c>
       <c r="D12" t="n">
-        <v>3.1064000000000003</v>
+        <v>3.04</v>
       </c>
       <c r="E12" t="n">
-        <v>0.035192649999999936</v>
+        <v>0.10159265000000017</v>
       </c>
     </row>
     <row r="13">
@@ -521,16 +491,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>500.0</v>
+        <v>10.0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.176</v>
+        <v>2.4</v>
       </c>
       <c r="D13" t="n">
-        <v>3.1064000000000003</v>
+        <v>3.04</v>
       </c>
       <c r="E13" t="n">
-        <v>0.035192649999999936</v>
+        <v>0.10159265000000017</v>
       </c>
     </row>
     <row r="14">
@@ -538,16 +508,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>500.0</v>
+        <v>10.0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.008</v>
+        <v>4.0</v>
       </c>
       <c r="D14" t="n">
-        <v>3.1064000000000003</v>
+        <v>3.04</v>
       </c>
       <c r="E14" t="n">
-        <v>0.035192649999999936</v>
+        <v>0.10159265000000017</v>
       </c>
     </row>
     <row r="15">
@@ -555,16 +525,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>500.0</v>
+        <v>10.0</v>
       </c>
       <c r="C15" t="n">
-        <v>3.128</v>
+        <v>4.0</v>
       </c>
       <c r="D15" t="n">
-        <v>3.1064000000000003</v>
+        <v>3.04</v>
       </c>
       <c r="E15" t="n">
-        <v>0.035192649999999936</v>
+        <v>0.10159265000000017</v>
       </c>
     </row>
     <row r="16">
@@ -572,16 +542,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>500.0</v>
+        <v>10.0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.048</v>
+        <v>3.2</v>
       </c>
       <c r="D16" t="n">
-        <v>3.1064000000000003</v>
+        <v>3.04</v>
       </c>
       <c r="E16" t="n">
-        <v>0.035192649999999936</v>
+        <v>0.10159265000000017</v>
       </c>
     </row>
     <row r="17">
@@ -589,16 +559,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>500.0</v>
+        <v>10.0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.104</v>
+        <v>3.2</v>
       </c>
       <c r="D17" t="n">
-        <v>3.1064000000000003</v>
+        <v>3.04</v>
       </c>
       <c r="E17" t="n">
-        <v>0.035192649999999936</v>
+        <v>0.10159265000000017</v>
       </c>
     </row>
     <row r="18">
@@ -606,16 +576,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>500.0</v>
+        <v>10.0</v>
       </c>
       <c r="C18" t="n">
-        <v>3.128</v>
+        <v>1.6</v>
       </c>
       <c r="D18" t="n">
-        <v>3.1064000000000003</v>
+        <v>3.04</v>
       </c>
       <c r="E18" t="n">
-        <v>0.035192649999999936</v>
+        <v>0.10159265000000017</v>
       </c>
     </row>
     <row r="19">
@@ -623,16 +593,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>500.0</v>
+        <v>10.0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.104</v>
+        <v>3.6</v>
       </c>
       <c r="D19" t="n">
-        <v>3.1064000000000003</v>
+        <v>3.04</v>
       </c>
       <c r="E19" t="n">
-        <v>0.035192649999999936</v>
+        <v>0.10159265000000017</v>
       </c>
     </row>
     <row r="20">
@@ -640,16 +610,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>500.0</v>
+        <v>10.0</v>
       </c>
       <c r="C20" t="n">
-        <v>3.128</v>
+        <v>2.8</v>
       </c>
       <c r="D20" t="n">
-        <v>3.1064000000000003</v>
+        <v>3.04</v>
       </c>
       <c r="E20" t="n">
-        <v>0.035192649999999936</v>
+        <v>0.10159265000000017</v>
       </c>
     </row>
     <row r="21">
@@ -657,16 +627,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>500.0</v>
+        <v>10.0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.088</v>
+        <v>2.4</v>
       </c>
       <c r="D21" t="n">
-        <v>3.1064000000000003</v>
+        <v>3.04</v>
       </c>
       <c r="E21" t="n">
-        <v>0.035192649999999936</v>
+        <v>0.10159265000000017</v>
       </c>
     </row>
     <row r="22">
@@ -674,16 +644,16 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.16</v>
+        <v>3.32</v>
       </c>
       <c r="D22" t="n">
-        <v>3.1472</v>
+        <v>3.064</v>
       </c>
       <c r="E22" t="n">
-        <v>0.005607350000000011</v>
+        <v>0.07759265000000015</v>
       </c>
     </row>
     <row r="23">
@@ -691,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="C23" t="n">
-        <v>3.272</v>
+        <v>3.04</v>
       </c>
       <c r="D23" t="n">
-        <v>3.1472</v>
+        <v>3.064</v>
       </c>
       <c r="E23" t="n">
-        <v>0.005607350000000011</v>
+        <v>0.07759265000000015</v>
       </c>
     </row>
     <row r="24">
@@ -708,16 +678,16 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="C24" t="n">
-        <v>3.02</v>
+        <v>3.08</v>
       </c>
       <c r="D24" t="n">
-        <v>3.1472</v>
+        <v>3.064</v>
       </c>
       <c r="E24" t="n">
-        <v>0.005607350000000011</v>
+        <v>0.07759265000000015</v>
       </c>
     </row>
     <row r="25">
@@ -725,16 +695,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.148</v>
+        <v>3.04</v>
       </c>
       <c r="D25" t="n">
-        <v>3.1472</v>
+        <v>3.064</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005607350000000011</v>
+        <v>0.07759265000000015</v>
       </c>
     </row>
     <row r="26">
@@ -742,16 +712,16 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="C26" t="n">
-        <v>3.164</v>
+        <v>3.0</v>
       </c>
       <c r="D26" t="n">
-        <v>3.1472</v>
+        <v>3.064</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005607350000000011</v>
+        <v>0.07759265000000015</v>
       </c>
     </row>
     <row r="27">
@@ -759,16 +729,16 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="C27" t="n">
-        <v>3.176</v>
+        <v>3.0</v>
       </c>
       <c r="D27" t="n">
-        <v>3.1472</v>
+        <v>3.064</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005607350000000011</v>
+        <v>0.07759265000000015</v>
       </c>
     </row>
     <row r="28">
@@ -776,16 +746,16 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.124</v>
+        <v>3.32</v>
       </c>
       <c r="D28" t="n">
-        <v>3.1472</v>
+        <v>3.064</v>
       </c>
       <c r="E28" t="n">
-        <v>0.005607350000000011</v>
+        <v>0.07759265000000015</v>
       </c>
     </row>
     <row r="29">
@@ -793,16 +763,16 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="C29" t="n">
-        <v>3.164</v>
+        <v>2.92</v>
       </c>
       <c r="D29" t="n">
-        <v>3.1472</v>
+        <v>3.064</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005607350000000011</v>
+        <v>0.07759265000000015</v>
       </c>
     </row>
     <row r="30">
@@ -810,16 +780,16 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="C30" t="n">
-        <v>3.136</v>
+        <v>3.0</v>
       </c>
       <c r="D30" t="n">
-        <v>3.1472</v>
+        <v>3.064</v>
       </c>
       <c r="E30" t="n">
-        <v>0.005607350000000011</v>
+        <v>0.07759265000000015</v>
       </c>
     </row>
     <row r="31">
@@ -827,16 +797,16 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>1000.0</v>
+        <v>100.0</v>
       </c>
       <c r="C31" t="n">
-        <v>3.108</v>
+        <v>2.92</v>
       </c>
       <c r="D31" t="n">
-        <v>3.1472</v>
+        <v>3.064</v>
       </c>
       <c r="E31" t="n">
-        <v>0.005607350000000011</v>
+        <v>0.07759265000000015</v>
       </c>
     </row>
     <row r="32">
@@ -844,16 +814,16 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>10000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C32" t="n">
-        <v>3.126</v>
+        <v>3.156</v>
       </c>
       <c r="D32" t="n">
-        <v>3.14076</v>
+        <v>3.124</v>
       </c>
       <c r="E32" t="n">
-        <v>8.326499999999903E-4</v>
+        <v>0.0175926500000001</v>
       </c>
     </row>
     <row r="33">
@@ -861,16 +831,16 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>10000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C33" t="n">
-        <v>3.1252</v>
+        <v>3.068</v>
       </c>
       <c r="D33" t="n">
-        <v>3.14076</v>
+        <v>3.124</v>
       </c>
       <c r="E33" t="n">
-        <v>8.326499999999903E-4</v>
+        <v>0.0175926500000001</v>
       </c>
     </row>
     <row r="34">
@@ -878,16 +848,16 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>10000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C34" t="n">
-        <v>3.1456</v>
+        <v>3.148</v>
       </c>
       <c r="D34" t="n">
-        <v>3.14076</v>
+        <v>3.124</v>
       </c>
       <c r="E34" t="n">
-        <v>8.326499999999903E-4</v>
+        <v>0.0175926500000001</v>
       </c>
     </row>
     <row r="35">
@@ -895,16 +865,16 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>10000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C35" t="n">
-        <v>3.1616</v>
+        <v>3.132</v>
       </c>
       <c r="D35" t="n">
-        <v>3.14076</v>
+        <v>3.124</v>
       </c>
       <c r="E35" t="n">
-        <v>8.326499999999903E-4</v>
+        <v>0.0175926500000001</v>
       </c>
     </row>
     <row r="36">
@@ -912,16 +882,16 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>10000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C36" t="n">
-        <v>3.1684</v>
+        <v>3.088</v>
       </c>
       <c r="D36" t="n">
-        <v>3.14076</v>
+        <v>3.124</v>
       </c>
       <c r="E36" t="n">
-        <v>8.326499999999903E-4</v>
+        <v>0.0175926500000001</v>
       </c>
     </row>
     <row r="37">
@@ -929,16 +899,16 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>10000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C37" t="n">
-        <v>3.1292</v>
+        <v>3.08</v>
       </c>
       <c r="D37" t="n">
-        <v>3.14076</v>
+        <v>3.124</v>
       </c>
       <c r="E37" t="n">
-        <v>8.326499999999903E-4</v>
+        <v>0.0175926500000001</v>
       </c>
     </row>
     <row r="38">
@@ -946,16 +916,16 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>10000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C38" t="n">
-        <v>3.1448</v>
+        <v>3.124</v>
       </c>
       <c r="D38" t="n">
-        <v>3.14076</v>
+        <v>3.124</v>
       </c>
       <c r="E38" t="n">
-        <v>8.326499999999903E-4</v>
+        <v>0.0175926500000001</v>
       </c>
     </row>
     <row r="39">
@@ -963,16 +933,16 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>10000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C39" t="n">
-        <v>3.1188</v>
+        <v>3.108</v>
       </c>
       <c r="D39" t="n">
-        <v>3.14076</v>
+        <v>3.124</v>
       </c>
       <c r="E39" t="n">
-        <v>8.326499999999903E-4</v>
+        <v>0.0175926500000001</v>
       </c>
     </row>
     <row r="40">
@@ -980,16 +950,16 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>10000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C40" t="n">
-        <v>3.1244</v>
+        <v>3.192</v>
       </c>
       <c r="D40" t="n">
-        <v>3.14076</v>
+        <v>3.124</v>
       </c>
       <c r="E40" t="n">
-        <v>8.326499999999903E-4</v>
+        <v>0.0175926500000001</v>
       </c>
     </row>
     <row r="41">
@@ -997,16 +967,16 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>10000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C41" t="n">
-        <v>3.1636</v>
+        <v>3.144</v>
       </c>
       <c r="D41" t="n">
-        <v>3.14076</v>
+        <v>3.124</v>
       </c>
       <c r="E41" t="n">
-        <v>8.326499999999903E-4</v>
+        <v>0.0175926500000001</v>
       </c>
     </row>
     <row r="42">
@@ -1014,16 +984,16 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>50000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C42" t="n">
-        <v>3.1376</v>
+        <v>3.1292</v>
       </c>
       <c r="D42" t="n">
-        <v>3.140752</v>
+        <v>3.13392</v>
       </c>
       <c r="E42" t="n">
-        <v>8.406500000002204E-4</v>
+        <v>0.007672650000000392</v>
       </c>
     </row>
     <row r="43">
@@ -1031,16 +1001,16 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>50000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C43" t="n">
-        <v>3.1456</v>
+        <v>3.1364</v>
       </c>
       <c r="D43" t="n">
-        <v>3.140752</v>
+        <v>3.13392</v>
       </c>
       <c r="E43" t="n">
-        <v>8.406500000002204E-4</v>
+        <v>0.007672650000000392</v>
       </c>
     </row>
     <row r="44">
@@ -1048,16 +1018,16 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>50000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C44" t="n">
-        <v>3.14728</v>
+        <v>3.1512</v>
       </c>
       <c r="D44" t="n">
-        <v>3.140752</v>
+        <v>3.13392</v>
       </c>
       <c r="E44" t="n">
-        <v>8.406500000002204E-4</v>
+        <v>0.007672650000000392</v>
       </c>
     </row>
     <row r="45">
@@ -1065,16 +1035,16 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>50000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C45" t="n">
-        <v>3.15184</v>
+        <v>3.118</v>
       </c>
       <c r="D45" t="n">
-        <v>3.140752</v>
+        <v>3.13392</v>
       </c>
       <c r="E45" t="n">
-        <v>8.406500000002204E-4</v>
+        <v>0.007672650000000392</v>
       </c>
     </row>
     <row r="46">
@@ -1082,16 +1052,16 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>50000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.13416</v>
+        <v>3.1216</v>
       </c>
       <c r="D46" t="n">
-        <v>3.140752</v>
+        <v>3.13392</v>
       </c>
       <c r="E46" t="n">
-        <v>8.406500000002204E-4</v>
+        <v>0.007672650000000392</v>
       </c>
     </row>
     <row r="47">
@@ -1099,16 +1069,16 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>50000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C47" t="n">
-        <v>3.1336</v>
+        <v>3.1624</v>
       </c>
       <c r="D47" t="n">
-        <v>3.140752</v>
+        <v>3.13392</v>
       </c>
       <c r="E47" t="n">
-        <v>8.406500000002204E-4</v>
+        <v>0.007672650000000392</v>
       </c>
     </row>
     <row r="48">
@@ -1116,16 +1086,16 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>50000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C48" t="n">
-        <v>3.13856</v>
+        <v>3.1408</v>
       </c>
       <c r="D48" t="n">
-        <v>3.140752</v>
+        <v>3.13392</v>
       </c>
       <c r="E48" t="n">
-        <v>8.406500000002204E-4</v>
+        <v>0.007672650000000392</v>
       </c>
     </row>
     <row r="49">
@@ -1133,16 +1103,16 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>50000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C49" t="n">
-        <v>3.13792</v>
+        <v>3.1348</v>
       </c>
       <c r="D49" t="n">
-        <v>3.140752</v>
+        <v>3.13392</v>
       </c>
       <c r="E49" t="n">
-        <v>8.406500000002204E-4</v>
+        <v>0.007672650000000392</v>
       </c>
     </row>
     <row r="50">
@@ -1150,16 +1120,16 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>50000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C50" t="n">
-        <v>3.14768</v>
+        <v>3.1352</v>
       </c>
       <c r="D50" t="n">
-        <v>3.140752</v>
+        <v>3.13392</v>
       </c>
       <c r="E50" t="n">
-        <v>8.406500000002204E-4</v>
+        <v>0.007672650000000392</v>
       </c>
     </row>
     <row r="51">
@@ -1167,16 +1137,16 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>50000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C51" t="n">
-        <v>3.13328</v>
+        <v>3.1096</v>
       </c>
       <c r="D51" t="n">
-        <v>3.140752</v>
+        <v>3.13392</v>
       </c>
       <c r="E51" t="n">
-        <v>8.406500000002204E-4</v>
+        <v>0.007672650000000392</v>
       </c>
     </row>
     <row r="52">
@@ -1187,13 +1157,13 @@
         <v>100000.0</v>
       </c>
       <c r="C52" t="n">
-        <v>3.15124</v>
+        <v>3.13512</v>
       </c>
       <c r="D52" t="n">
-        <v>3.143188</v>
+        <v>3.140084</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0015953499999996623</v>
+        <v>0.0015086500000003333</v>
       </c>
     </row>
     <row r="53">
@@ -1204,13 +1174,13 @@
         <v>100000.0</v>
       </c>
       <c r="C53" t="n">
-        <v>3.14072</v>
+        <v>3.12968</v>
       </c>
       <c r="D53" t="n">
-        <v>3.143188</v>
+        <v>3.140084</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0015953499999996623</v>
+        <v>0.0015086500000003333</v>
       </c>
     </row>
     <row r="54">
@@ -1221,13 +1191,13 @@
         <v>100000.0</v>
       </c>
       <c r="C54" t="n">
-        <v>3.15132</v>
+        <v>3.14192</v>
       </c>
       <c r="D54" t="n">
-        <v>3.143188</v>
+        <v>3.140084</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0015953499999996623</v>
+        <v>0.0015086500000003333</v>
       </c>
     </row>
     <row r="55">
@@ -1238,13 +1208,13 @@
         <v>100000.0</v>
       </c>
       <c r="C55" t="n">
-        <v>3.15076</v>
+        <v>3.14644</v>
       </c>
       <c r="D55" t="n">
-        <v>3.143188</v>
+        <v>3.140084</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0015953499999996623</v>
+        <v>0.0015086500000003333</v>
       </c>
     </row>
     <row r="56">
@@ -1255,13 +1225,13 @@
         <v>100000.0</v>
       </c>
       <c r="C56" t="n">
-        <v>3.1406</v>
+        <v>3.13988</v>
       </c>
       <c r="D56" t="n">
-        <v>3.143188</v>
+        <v>3.140084</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0015953499999996623</v>
+        <v>0.0015086500000003333</v>
       </c>
     </row>
     <row r="57">
@@ -1272,13 +1242,13 @@
         <v>100000.0</v>
       </c>
       <c r="C57" t="n">
-        <v>3.13796</v>
+        <v>3.13376</v>
       </c>
       <c r="D57" t="n">
-        <v>3.143188</v>
+        <v>3.140084</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0015953499999996623</v>
+        <v>0.0015086500000003333</v>
       </c>
     </row>
     <row r="58">
@@ -1289,13 +1259,13 @@
         <v>100000.0</v>
       </c>
       <c r="C58" t="n">
-        <v>3.13288</v>
+        <v>3.14704</v>
       </c>
       <c r="D58" t="n">
-        <v>3.143188</v>
+        <v>3.140084</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0015953499999996623</v>
+        <v>0.0015086500000003333</v>
       </c>
     </row>
     <row r="59">
@@ -1306,13 +1276,13 @@
         <v>100000.0</v>
       </c>
       <c r="C59" t="n">
-        <v>3.13912</v>
+        <v>3.14312</v>
       </c>
       <c r="D59" t="n">
-        <v>3.143188</v>
+        <v>3.140084</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0015953499999996623</v>
+        <v>0.0015086500000003333</v>
       </c>
     </row>
     <row r="60">
@@ -1323,13 +1293,13 @@
         <v>100000.0</v>
       </c>
       <c r="C60" t="n">
-        <v>3.13788</v>
+        <v>3.14168</v>
       </c>
       <c r="D60" t="n">
-        <v>3.143188</v>
+        <v>3.140084</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0015953499999996623</v>
+        <v>0.0015086500000003333</v>
       </c>
     </row>
     <row r="61">
@@ -1340,13 +1310,13 @@
         <v>100000.0</v>
       </c>
       <c r="C61" t="n">
-        <v>3.1494</v>
+        <v>3.1422</v>
       </c>
       <c r="D61" t="n">
-        <v>3.143188</v>
+        <v>3.140084</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0015953499999996623</v>
+        <v>0.0015086500000003333</v>
       </c>
     </row>
     <row r="62">
@@ -1354,16 +1324,16 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>500000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="C62" t="n">
-        <v>3.138848</v>
+        <v>3.13904</v>
       </c>
       <c r="D62" t="n">
-        <v>3.1402744</v>
+        <v>3.1409996</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0013182500000001873</v>
+        <v>5.93050000000428E-4</v>
       </c>
     </row>
     <row r="63">
@@ -1371,16 +1341,16 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>500000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="C63" t="n">
-        <v>3.139824</v>
+        <v>3.141888</v>
       </c>
       <c r="D63" t="n">
-        <v>3.1402744</v>
+        <v>3.1409996</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0013182500000001873</v>
+        <v>5.93050000000428E-4</v>
       </c>
     </row>
     <row r="64">
@@ -1388,16 +1358,16 @@
         <v>66</v>
       </c>
       <c r="B64" t="n">
-        <v>500000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="C64" t="n">
-        <v>3.1382</v>
+        <v>3.140856</v>
       </c>
       <c r="D64" t="n">
-        <v>3.1402744</v>
+        <v>3.1409996</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0013182500000001873</v>
+        <v>5.93050000000428E-4</v>
       </c>
     </row>
     <row r="65">
@@ -1405,16 +1375,16 @@
         <v>67</v>
       </c>
       <c r="B65" t="n">
-        <v>500000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="C65" t="n">
-        <v>3.142832</v>
+        <v>3.140156</v>
       </c>
       <c r="D65" t="n">
-        <v>3.1402744</v>
+        <v>3.1409996</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0013182500000001873</v>
+        <v>5.93050000000428E-4</v>
       </c>
     </row>
     <row r="66">
@@ -1422,16 +1392,16 @@
         <v>68</v>
       </c>
       <c r="B66" t="n">
-        <v>500000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="C66" t="n">
-        <v>3.1382</v>
+        <v>3.14056</v>
       </c>
       <c r="D66" t="n">
-        <v>3.1402744</v>
+        <v>3.1409996</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0013182500000001873</v>
+        <v>5.93050000000428E-4</v>
       </c>
     </row>
     <row r="67">
@@ -1439,16 +1409,16 @@
         <v>69</v>
       </c>
       <c r="B67" t="n">
-        <v>500000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="C67" t="n">
-        <v>3.139048</v>
+        <v>3.14202</v>
       </c>
       <c r="D67" t="n">
-        <v>3.1402744</v>
+        <v>3.1409996</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0013182500000001873</v>
+        <v>5.93050000000428E-4</v>
       </c>
     </row>
     <row r="68">
@@ -1456,16 +1426,16 @@
         <v>70</v>
       </c>
       <c r="B68" t="n">
-        <v>500000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="C68" t="n">
-        <v>3.141136</v>
+        <v>3.142804</v>
       </c>
       <c r="D68" t="n">
-        <v>3.1402744</v>
+        <v>3.1409996</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0013182500000001873</v>
+        <v>5.93050000000428E-4</v>
       </c>
     </row>
     <row r="69">
@@ -1473,16 +1443,16 @@
         <v>71</v>
       </c>
       <c r="B69" t="n">
-        <v>500000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="C69" t="n">
-        <v>3.14212</v>
+        <v>3.142656</v>
       </c>
       <c r="D69" t="n">
-        <v>3.1402744</v>
+        <v>3.1409996</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0013182500000001873</v>
+        <v>5.93050000000428E-4</v>
       </c>
     </row>
     <row r="70">
@@ -1490,16 +1460,16 @@
         <v>72</v>
       </c>
       <c r="B70" t="n">
-        <v>500000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="C70" t="n">
-        <v>3.14164</v>
+        <v>3.141028</v>
       </c>
       <c r="D70" t="n">
-        <v>3.1402744</v>
+        <v>3.1409996</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0013182500000001873</v>
+        <v>5.93050000000428E-4</v>
       </c>
     </row>
     <row r="71">
@@ -1507,186 +1477,16 @@
         <v>73</v>
       </c>
       <c r="B71" t="n">
-        <v>500000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="C71" t="n">
-        <v>3.140896</v>
+        <v>3.138988</v>
       </c>
       <c r="D71" t="n">
-        <v>3.1402744</v>
+        <v>3.1409996</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0013182500000001873</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3.14098</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3.141196</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3.9665000000033146E-4</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3.143788</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3.141196</v>
-      </c>
-      <c r="E73" t="n">
-        <v>3.9665000000033146E-4</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>3.139892</v>
-      </c>
-      <c r="D74" t="n">
-        <v>3.141196</v>
-      </c>
-      <c r="E74" t="n">
-        <v>3.9665000000033146E-4</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>3.143944</v>
-      </c>
-      <c r="D75" t="n">
-        <v>3.141196</v>
-      </c>
-      <c r="E75" t="n">
-        <v>3.9665000000033146E-4</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3.140544</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3.141196</v>
-      </c>
-      <c r="E76" t="n">
-        <v>3.9665000000033146E-4</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>3.143224</v>
-      </c>
-      <c r="D77" t="n">
-        <v>3.141196</v>
-      </c>
-      <c r="E77" t="n">
-        <v>3.9665000000033146E-4</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>3.14072</v>
-      </c>
-      <c r="D78" t="n">
-        <v>3.141196</v>
-      </c>
-      <c r="E78" t="n">
-        <v>3.9665000000033146E-4</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>3.14038</v>
-      </c>
-      <c r="D79" t="n">
-        <v>3.141196</v>
-      </c>
-      <c r="E79" t="n">
-        <v>3.9665000000033146E-4</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>3.139312</v>
-      </c>
-      <c r="D80" t="n">
-        <v>3.141196</v>
-      </c>
-      <c r="E80" t="n">
-        <v>3.9665000000033146E-4</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1000000.0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3.139176</v>
-      </c>
-      <c r="D81" t="n">
-        <v>3.141196</v>
-      </c>
-      <c r="E81" t="n">
-        <v>3.9665000000033146E-4</v>
+        <v>5.93050000000428E-4</v>
       </c>
     </row>
   </sheetData>
